--- a/Portafolio.xlsx
+++ b/Portafolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portafolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1146ED1E-91AA-4E48-BEA3-3337DF90EFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A849072-C320-45C0-9388-BDBD98D315A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{531A44E2-BAA0-44A1-A07C-F752D8ABEFEE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="3439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4714" uniqueCount="3850">
   <si>
     <t>HTML</t>
   </si>
@@ -10357,6 +10357,1239 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>Cláusula</t>
+  </si>
+  <si>
+    <t>Agrega una columna en una tabla existente</t>
+  </si>
+  <si>
+    <t>Agrega una restricción después de que ya se haya creado una tabla</t>
+  </si>
+  <si>
+    <t>Devuelve true si todos los valores de la subconsulta cumplen el parámetro condición</t>
+  </si>
+  <si>
+    <t>Agrega, elimina o modifica columnas de una tabla, o cambia los datos Tipo de una columna en una tabla</t>
+  </si>
+  <si>
+    <t>Cambia el tipo de datos de una columna de una tabla</t>
+  </si>
+  <si>
+    <t>Agrega, elimina o modifica columnas de una tabla</t>
+  </si>
+  <si>
+    <t>Solo incluye las filas en las que se cumplen ambas condiciones</t>
+  </si>
+  <si>
+    <t>Devuelve true si alguno de los valores de la subconsulta cumple con el parámetro condición</t>
+  </si>
+  <si>
+    <t>Cambia el nombre de una columna o tabla con un alias</t>
+  </si>
+  <si>
+    <t>Ordena el conjunto de resultados en orden ascendente</t>
+  </si>
+  <si>
+    <t>Crea una copia de seguridad de una base de datos existente</t>
+  </si>
+  <si>
+    <t>Selecciona valores dentro de un rango determinado</t>
+  </si>
+  <si>
+    <t>Crea diferentes salidas en función de las condiciones</t>
+  </si>
+  <si>
+    <t>Restricción que limita el valor que se puede colocar en un columna</t>
+  </si>
+  <si>
+    <t>Cambia el tipo de datos de una columna o elimina una columna de una tabla</t>
+  </si>
+  <si>
+    <t>Agrega o elimina una restricción</t>
+  </si>
+  <si>
+    <t>Crea una base de datos, un índice, una vista, una tabla o un procedimiento</t>
+  </si>
+  <si>
+    <t>Crea una nueva base de datos SQL</t>
+  </si>
+  <si>
+    <t>Crea un índice en una tabla (permite valores duplicados)</t>
+  </si>
+  <si>
+    <t>Actualiza una vista</t>
+  </si>
+  <si>
+    <t>Crea una nueva tabla en la base de datos</t>
+  </si>
+  <si>
+    <t>Crea un procedimiento almacenado</t>
+  </si>
+  <si>
+    <t>Crea un índice único en una tabla (sin valores duplicados)</t>
+  </si>
+  <si>
+    <t>Crea una vista basada en el conjunto de resultados de una instrucción SELECT</t>
+  </si>
+  <si>
+    <t>Crea o elimina una base de datos SQL</t>
+  </si>
+  <si>
+    <t>Restricción que proporciona un valor predeterminado para una columna</t>
+  </si>
+  <si>
+    <t>Elimina filas de una tabla</t>
+  </si>
+  <si>
+    <t>Ordena el conjunto de resultados en orden descendente</t>
+  </si>
+  <si>
+    <t>Selecciona solo valores distintos (diferentes)</t>
+  </si>
+  <si>
+    <t>Elimina una columna, una restricción, una base de datos, un índice, una tabla o una vista</t>
+  </si>
+  <si>
+    <t>Elimina una columna de una tabla</t>
+  </si>
+  <si>
+    <t>Elimina una restricción UNIQUE, PRIMARY KEY, FOREIGN KEY o CHECK</t>
+  </si>
+  <si>
+    <t>Elimina una base de datos SQL existente</t>
+  </si>
+  <si>
+    <t>Elimina una restricción DEFAULT</t>
+  </si>
+  <si>
+    <t>Elimina un índice de una tabla</t>
+  </si>
+  <si>
+    <t>Elimina una tabla existente en la base de datos</t>
+  </si>
+  <si>
+    <t>Elimina una vista</t>
+  </si>
+  <si>
+    <t>Ejecuta un procedimiento almacenado</t>
+  </si>
+  <si>
+    <t>Comprueba la existencia de cualquier registro en una subconsulta</t>
+  </si>
+  <si>
+    <t>Restricción que es una clave que se usa para vincular dos tablas entre sí</t>
+  </si>
+  <si>
+    <t>Especifica la tabla de la que se van a seleccionar o eliminar datos</t>
+  </si>
+  <si>
+    <t>Devuelve todas las filas cuando hay una coincidencia en la tabla izquierda o en la tabla derecha</t>
+  </si>
+  <si>
+    <t>Agrupa el conjunto de resultados (utilizado con las funciones de agregado: COUNT, MAX, MIN, SUM, AVG)</t>
+  </si>
+  <si>
+    <t>Se usa en lugar de WHERE con funciones agregadas</t>
+  </si>
+  <si>
+    <t>Permite especificar varios valores en una cláusula WHERE</t>
+  </si>
+  <si>
+    <t>Crea o elimina un índice en una tabla</t>
+  </si>
+  <si>
+    <t>Devuelve las filas que tienen valores coincidentes en ambas tablas</t>
+  </si>
+  <si>
+    <t>Inserta nuevas filas en una tabla</t>
+  </si>
+  <si>
+    <t>Copia datos de una tabla en otra tabla</t>
+  </si>
+  <si>
+    <t>Pruebas para valores vacíos</t>
+  </si>
+  <si>
+    <t>Pruebas de valores no vacíos</t>
+  </si>
+  <si>
+    <t>Combina tablas</t>
+  </si>
+  <si>
+    <t>Devuelve todas las filas de la tabla de la izquierda y las filas coincidentes de la derecha mesa</t>
+  </si>
+  <si>
+    <t>Busca un patrón especificado en una columna</t>
+  </si>
+  <si>
+    <t>Especifica el número de registros que se van a devolver en el conjunto de resultados</t>
+  </si>
+  <si>
+    <t>Solo incluye las filas en las que una condición no es verdadera</t>
+  </si>
+  <si>
+    <t>Restricción que obliga a una columna a no aceptar valores NULL</t>
+  </si>
+  <si>
+    <t>Incluye filas en las que se cumple alguna de las condiciones</t>
+  </si>
+  <si>
+    <t>Ordena el conjunto de resultados en orden ascendente o descendente</t>
+  </si>
+  <si>
+    <t>Restricción que identifica de forma única cada registro de una tabla de base de datos</t>
+  </si>
+  <si>
+    <t>Un procedimiento almacenado</t>
+  </si>
+  <si>
+    <t>Devuelve todas las filas de la tabla derecha y las filas coincidentes de la tabla Tabla de la izquierda</t>
+  </si>
+  <si>
+    <t>Selecciona datos de una base de datos</t>
+  </si>
+  <si>
+    <t>Copia datos de una tabla en una nueva tabla</t>
+  </si>
+  <si>
+    <t>Especifica las columnas y los valores que se deben actualizar en una tabla</t>
+  </si>
+  <si>
+    <t>Crea una tabla, o agrega, elimina o modifica columnas en una tabla, o Elimina una tabla o datos dentro de una tabla</t>
+  </si>
+  <si>
+    <t>Elimina los datos dentro de una tabla, pero no la tabla en sí</t>
+  </si>
+  <si>
+    <t>Combina el conjunto de resultados de dos o más instrucciones SELECT (sólo valores distintos)</t>
+  </si>
+  <si>
+    <t>Combina el conjunto de resultados de dos o más instrucciones SELECT (permite valores duplicados)</t>
+  </si>
+  <si>
+    <t>Restricción que garantiza que todos los valores de una columna sean únicos</t>
+  </si>
+  <si>
+    <t>Actualiza las filas existentes en una tabla</t>
+  </si>
+  <si>
+    <t>Especifica los valores de una instrucción INSERT INTO</t>
+  </si>
+  <si>
+    <t>Crea, actualiza o elimina una vista</t>
+  </si>
+  <si>
+    <t>Filtra un conjunto de resultados para incluir solo los registros que cumplen un condición</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>ADD CONSTRAINT</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>ALTER</t>
+  </si>
+  <si>
+    <t>ALTER COLUMN</t>
+  </si>
+  <si>
+    <t>ALTER TABLE</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>BACKUP DATABASE</t>
+  </si>
+  <si>
+    <t>BETWEEN</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>CONSTRAINT</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE</t>
+  </si>
+  <si>
+    <t>CREATE INDEX</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE VIEW</t>
+  </si>
+  <si>
+    <t>CREATE TABLE</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX</t>
+  </si>
+  <si>
+    <t>CREATE VIEW</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>DROP COLUMN</t>
+  </si>
+  <si>
+    <t>DROP CONSTRAINT</t>
+  </si>
+  <si>
+    <t>DROP DATABASE</t>
+  </si>
+  <si>
+    <t>DROP DEFAULT</t>
+  </si>
+  <si>
+    <t>DROP INDEX</t>
+  </si>
+  <si>
+    <t>DROP TABLE</t>
+  </si>
+  <si>
+    <t>DROP VIEW</t>
+  </si>
+  <si>
+    <t>EXEC</t>
+  </si>
+  <si>
+    <t>EXISTS</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>FULL OUTER JOIN</t>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+  </si>
+  <si>
+    <t>HAVING</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>INSERT INTO</t>
+  </si>
+  <si>
+    <t>INSERT INTO SELECT</t>
+  </si>
+  <si>
+    <t>IS NULL</t>
+  </si>
+  <si>
+    <t>IS NOT NULL</t>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>OUTER JOIN</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN</t>
+  </si>
+  <si>
+    <t>ROWNUM</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT</t>
+  </si>
+  <si>
+    <t>SELECT INTO</t>
+  </si>
+  <si>
+    <t>SELECT TOP</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>UNION ALL</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>VALUES</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>CHAR_LENGTH</t>
+  </si>
+  <si>
+    <t>CHARACTER_LENGTH</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t>CONCAT_WS</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>FIND_IN_SET</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>INSTR</t>
+  </si>
+  <si>
+    <t>LCASE</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>LOCATE</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>LPAD</t>
+  </si>
+  <si>
+    <t>LTRIM</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>REVERSE</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>RPAD</t>
+  </si>
+  <si>
+    <t>RTRIM</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>STRCMP</t>
+  </si>
+  <si>
+    <t>SUBSTR</t>
+  </si>
+  <si>
+    <t>SUBSTRING</t>
+  </si>
+  <si>
+    <t>SUBSTRING_INDEX</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>UCASE</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>ACOS</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>ATAN</t>
+  </si>
+  <si>
+    <t>ATAN2</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>CEIL</t>
+  </si>
+  <si>
+    <t>CEILING</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>COT</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>DEGREES</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>FLOOR</t>
+  </si>
+  <si>
+    <t>GREATEST</t>
+  </si>
+  <si>
+    <t>LEAST</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>LOG10</t>
+  </si>
+  <si>
+    <t>LOG2</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>RADIANS</t>
+  </si>
+  <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>ROUND</t>
+  </si>
+  <si>
+    <t>SIGN</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TRUNCATE</t>
+  </si>
+  <si>
+    <t>Funciones de fecha</t>
+  </si>
+  <si>
+    <t>Funciones de número</t>
+  </si>
+  <si>
+    <t>Funciones de texto</t>
+  </si>
+  <si>
+    <t>ADDDATE</t>
+  </si>
+  <si>
+    <t>ADDTIME</t>
+  </si>
+  <si>
+    <t>CURDATE</t>
+  </si>
+  <si>
+    <t>CURRENT_DATE</t>
+  </si>
+  <si>
+    <t>CURRENT_TIME</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CURTIME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DATEDIFF</t>
+  </si>
+  <si>
+    <t>DATE_ADD</t>
+  </si>
+  <si>
+    <t>DATE_FORMAT</t>
+  </si>
+  <si>
+    <t>DATE_SUB</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>DAYNAME</t>
+  </si>
+  <si>
+    <t>DAYOFMONTH</t>
+  </si>
+  <si>
+    <t>DAYOFWEEK</t>
+  </si>
+  <si>
+    <t>DAYOFYEAR</t>
+  </si>
+  <si>
+    <t>EXTRACT</t>
+  </si>
+  <si>
+    <t>FROM_DAYS</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>LAST_DAY</t>
+  </si>
+  <si>
+    <t>LOCALTIME</t>
+  </si>
+  <si>
+    <t>LOCALTIMESTAMP</t>
+  </si>
+  <si>
+    <t>MAKEDATE</t>
+  </si>
+  <si>
+    <t>MAKETIME</t>
+  </si>
+  <si>
+    <t>MICROSECOND</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>MONTHNAME</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>PERIOD_ADD</t>
+  </si>
+  <si>
+    <t>PERIOD_DIFF</t>
+  </si>
+  <si>
+    <t>QUARTER</t>
+  </si>
+  <si>
+    <t>SECOND</t>
+  </si>
+  <si>
+    <t>SEC_TO_TIME</t>
+  </si>
+  <si>
+    <t>STR_TO_DATE</t>
+  </si>
+  <si>
+    <t>SUBDATE</t>
+  </si>
+  <si>
+    <t>SUBTIME</t>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TIME_FORMAT</t>
+  </si>
+  <si>
+    <t>TIME_TO_SEC</t>
+  </si>
+  <si>
+    <t>TIMEDIFF</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TO_DAYS</t>
+  </si>
+  <si>
+    <t>WEEK</t>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+  </si>
+  <si>
+    <t>WEEKOFYEAR</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>YEARWEEK</t>
+  </si>
+  <si>
+    <t>Funciones avanzadas</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>COALESCE</t>
+  </si>
+  <si>
+    <t>CONNECTION_ID</t>
+  </si>
+  <si>
+    <t>CONV</t>
+  </si>
+  <si>
+    <t>CONVERT</t>
+  </si>
+  <si>
+    <t>CURRENT_USER</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IFNULL</t>
+  </si>
+  <si>
+    <t>ISNULL</t>
+  </si>
+  <si>
+    <t>LAST_INSERT_ID</t>
+  </si>
+  <si>
+    <t>NULLIF</t>
+  </si>
+  <si>
+    <t>SESSION_USER</t>
+  </si>
+  <si>
+    <t>SYSTEM_USER</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>Devuelve el valor ASCII para el carácter específico.</t>
+  </si>
+  <si>
+    <t>Devuelve la longitud de una cadena (en caracteres)</t>
+  </si>
+  <si>
+    <t>Suma dos o más expresiones juntas</t>
+  </si>
+  <si>
+    <t>Agrega dos o más expresiones junto con un separador.</t>
+  </si>
+  <si>
+    <t>Devuelve la posición de índice de un valor en una lista de valores.</t>
+  </si>
+  <si>
+    <t>Devuelve la posición de una cadena dentro de una lista de cadenas</t>
+  </si>
+  <si>
+    <t>Formatea un número con un formato como "#,###,###.##", redondeado a un número específico de decimales.</t>
+  </si>
+  <si>
+    <t>Inserta una cadena dentro de una cadena en la posición especificada y para una cierta cantidad de caracteres</t>
+  </si>
+  <si>
+    <t>Devuelve la posición de la primera aparición de una cadena en otra cadena.</t>
+  </si>
+  <si>
+    <t>Convierte una cadena a minúsculas</t>
+  </si>
+  <si>
+    <t>Extrae una cantidad de caracteres de una cadena (comenzando desde la izquierda)</t>
+  </si>
+  <si>
+    <t>Devuelve la longitud de una cadena (en bytes)</t>
+  </si>
+  <si>
+    <t>Devuelve la posición de la primera aparición de una subcadena en una cadena.</t>
+  </si>
+  <si>
+    <t>Rellena a la izquierda una cuerda con otra cuerda, hasta una cierta longitud</t>
+  </si>
+  <si>
+    <t>Elimina los espacios iniciales de una cadena.</t>
+  </si>
+  <si>
+    <t>Extrae una subcadena de una cadena (comenzando en cualquier posición)</t>
+  </si>
+  <si>
+    <t>Repite una cadena tantas veces como se especifica</t>
+  </si>
+  <si>
+    <t>Reemplaza todas las apariciones de una subcadena dentro de una cadena, con una nueva subcadena</t>
+  </si>
+  <si>
+    <t>Invierte una cadena y devuelve el resultado.</t>
+  </si>
+  <si>
+    <t>Extrae una cantidad de caracteres de una cadena (comenzando desde la derecha)</t>
+  </si>
+  <si>
+    <t>Rellena a la derecha una cuerda con otra cuerda, hasta una cierta longitud</t>
+  </si>
+  <si>
+    <t>Elimina los espacios finales de una cadena.</t>
+  </si>
+  <si>
+    <t>Devuelve una cadena del número especificado de caracteres de espacio.</t>
+  </si>
+  <si>
+    <t>Compara dos cadenas</t>
+  </si>
+  <si>
+    <t>Devuelve una subcadena de una cadena antes de que ocurra un número específico de delimitadores</t>
+  </si>
+  <si>
+    <t>Elimina los espacios iniciales y finales de una cadena.</t>
+  </si>
+  <si>
+    <t>Convierte una cadena a mayúsculas</t>
+  </si>
+  <si>
+    <t>Devuelve el valor absoluto de un número</t>
+  </si>
+  <si>
+    <t>Devuelve el arco coseno de un número.</t>
+  </si>
+  <si>
+    <t>Devuelve el arco seno de un número</t>
+  </si>
+  <si>
+    <t>Devuelve el arco tangente de uno o dos números.</t>
+  </si>
+  <si>
+    <t>Devuelve el arco tangente de dos números.</t>
+  </si>
+  <si>
+    <t>Devuelve el valor promedio de una expresión.</t>
+  </si>
+  <si>
+    <t>Devuelve el valor entero más pequeño que es &gt;= a un número</t>
+  </si>
+  <si>
+    <t>Devuelve el coseno de un número</t>
+  </si>
+  <si>
+    <t>Devuelve la cotangente de un número</t>
+  </si>
+  <si>
+    <t>Devuelve el número de registros devueltos por una consulta de selección.</t>
+  </si>
+  <si>
+    <t>Convierte un valor en radianes a grados</t>
+  </si>
+  <si>
+    <t>Utilizado para división de números enteros.</t>
+  </si>
+  <si>
+    <t>Devuelve e elevado a la potencia de un número específico</t>
+  </si>
+  <si>
+    <t>Devuelve el valor entero más grande que es &lt;= a un número</t>
+  </si>
+  <si>
+    <t>Devuelve el mayor valor de la lista de argumentos.</t>
+  </si>
+  <si>
+    <t>Devuelve el valor más pequeño de la lista de argumentos.</t>
+  </si>
+  <si>
+    <t>Devuelve el logaritmo natural de un número</t>
+  </si>
+  <si>
+    <t>Devuelve el logaritmo natural de un número o el logaritmo de un número con una base especificada</t>
+  </si>
+  <si>
+    <t>Devuelve el logaritmo natural de un número en base 10</t>
+  </si>
+  <si>
+    <t>Devuelve el logaritmo natural de un número en base 2</t>
+  </si>
+  <si>
+    <t>Devuelve el valor máximo en un conjunto de valores.</t>
+  </si>
+  <si>
+    <t>Devuelve el valor mínimo en un conjunto de valores.</t>
+  </si>
+  <si>
+    <t>Devuelve el resto de un número dividido por otro número</t>
+  </si>
+  <si>
+    <t>Devuelve el valor de PI</t>
+  </si>
+  <si>
+    <t>Devuelve el valor de un número elevado a la potencia de otro número</t>
+  </si>
+  <si>
+    <t>Convierte un valor de grados en radianes</t>
+  </si>
+  <si>
+    <t>Devuelve un número aleatorio</t>
+  </si>
+  <si>
+    <t>Redondea un número a un número específico de decimales</t>
+  </si>
+  <si>
+    <t>Devuelve el signo de un número</t>
+  </si>
+  <si>
+    <t>Devuelve el seno de un número</t>
+  </si>
+  <si>
+    <t>Devuelve la raíz cuadrada de un número</t>
+  </si>
+  <si>
+    <t>Calcula la suma de un conjunto de valores.</t>
+  </si>
+  <si>
+    <t>Devuelve la tangente de un número</t>
+  </si>
+  <si>
+    <t>Trunca un número al número especificado de decimales</t>
+  </si>
+  <si>
+    <t>Agrega un intervalo de hora/fecha a una fecha y luego devuelve la fecha</t>
+  </si>
+  <si>
+    <t>Agrega un intervalo de tiempo a una hora/fechahora y luego devuelve la hora/fechahora</t>
+  </si>
+  <si>
+    <t>Devuelve la fecha actual</t>
+  </si>
+  <si>
+    <t>Devuelve la hora actual</t>
+  </si>
+  <si>
+    <t>Devuelve la fecha y hora actuales</t>
+  </si>
+  <si>
+    <t>Extrae la parte de fecha de una expresión de fecha y hora.</t>
+  </si>
+  <si>
+    <t>Devuelve el número de días entre dos valores de fecha</t>
+  </si>
+  <si>
+    <t>Formatea una fecha</t>
+  </si>
+  <si>
+    <t>Resta un intervalo de hora/fecha de una fecha y luego devuelve la fecha</t>
+  </si>
+  <si>
+    <t>Devuelve el día del mes para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve el nombre del día de la semana para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve el índice del día de la semana para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve el día del año para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Extrae una parte de una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve una fecha a partir de un valor de fecha numérico</t>
+  </si>
+  <si>
+    <t>Devuelve la parte de la hora para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Extrae el último día del mes para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Crea y devuelve una fecha basada en un valor de año y número de días.</t>
+  </si>
+  <si>
+    <t>Crea y devuelve una hora basada en un valor de hora, minuto y segundo.</t>
+  </si>
+  <si>
+    <t>Devuelve la parte de microsegundos de una hora/fechahora</t>
+  </si>
+  <si>
+    <t>Devuelve la parte de minutos de una hora/fechahora</t>
+  </si>
+  <si>
+    <t>Devuelve la parte del mes para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve el nombre del mes para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Agrega un número específico de meses a un período</t>
+  </si>
+  <si>
+    <t>Devuelve la diferencia entre dos períodos.</t>
+  </si>
+  <si>
+    <t>Devuelve el trimestre del año para un valor de fecha determinado</t>
+  </si>
+  <si>
+    <t>Devuelve los segundos parte de una hora/fechahora</t>
+  </si>
+  <si>
+    <t>Devuelve un valor de tiempo basado en los segundos especificados.</t>
+  </si>
+  <si>
+    <t>Devuelve una fecha basada en una cadena y un formato.</t>
+  </si>
+  <si>
+    <t>Resta un intervalo de tiempo de una fecha y hora y luego devuelve la hora/fecha y hora</t>
+  </si>
+  <si>
+    <t>Extrae la parte de tiempo de una hora/fechahora determinada</t>
+  </si>
+  <si>
+    <t>Formatea una hora según un formato específico</t>
+  </si>
+  <si>
+    <t>Convierte un valor de tiempo en segundos.</t>
+  </si>
+  <si>
+    <t>Devuelve la diferencia entre dos expresiones de hora/fechahora</t>
+  </si>
+  <si>
+    <t>Devuelve un valor de fecha y hora basado en una fecha o un valor de fecha y hora</t>
+  </si>
+  <si>
+    <t>Devuelve el número de días entre una fecha y la fecha "0000-00-00"</t>
+  </si>
+  <si>
+    <t>Devuelve el número de semana para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve el número del día de la semana para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve la parte del año para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve el año y el número de semana para una fecha determinada.</t>
+  </si>
+  <si>
+    <t>Devuelve una representación binaria de un número.</t>
+  </si>
+  <si>
+    <t>Convierte un valor en una cadena binaria</t>
+  </si>
+  <si>
+    <t>Pasa por las condiciones y devuelve un valor cuando se cumple la primera condición.</t>
+  </si>
+  <si>
+    <t>Convierte un valor (de cualquier tipo) en un tipo de datos específico</t>
+  </si>
+  <si>
+    <t>Devuelve el primer valor no nulo de una lista</t>
+  </si>
+  <si>
+    <t>Devuelve el ID de conexión único para la conexión actual</t>
+  </si>
+  <si>
+    <t>Convierte un número de un sistema base numérico a otro</t>
+  </si>
+  <si>
+    <t>Convierte un valor al tipo de datos o juego de caracteres especificado</t>
+  </si>
+  <si>
+    <t>Devuelve el nombre de usuario y el nombre de host de la cuenta MySQL que el servidor utilizó para autenticar al cliente actual.</t>
+  </si>
+  <si>
+    <t>Devuelve el nombre de la base de datos actual.</t>
+  </si>
+  <si>
+    <t>Devuelve un valor si una condición es VERDADERA, u otro valor si una condición es FALSA</t>
+  </si>
+  <si>
+    <t>Devuelve un valor especificado si la expresión es NULL; de lo contrario, devuelve la expresión</t>
+  </si>
+  <si>
+    <t>Devuelve 1 o 0 dependiendo de si una expresión es NULL</t>
+  </si>
+  <si>
+    <t>Devuelve el ID AUTO_INCREMENT de la última fila que se ha insertado o actualizado en una tabla</t>
+  </si>
+  <si>
+    <t>Compara dos expresiones y devuelve NULL si son iguales. De lo contrario, se devuelve la primera expresión.</t>
+  </si>
+  <si>
+    <t>Devuelve el nombre de usuario y el nombre de host actuales de MySQL.</t>
+  </si>
+  <si>
+    <t>Devuelve la versión actual de la base de datos MySQL.</t>
+  </si>
+  <si>
+    <t>Lenguaje de consulta estructurado</t>
   </si>
 </sst>
 </file>
@@ -10598,7 +11831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10708,7 +11941,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10735,9 +11983,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10775,7 +12023,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10881,7 +12129,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11023,7 +12271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21257,7 +22505,7 @@
   <dimension ref="A1:C615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29129,24 +30377,1745 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CF9ACB-2185-4194-A60C-AFEA20557261}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>3438</v>
       </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>3662</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>3592</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>3594</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>3597</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>3598</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>3602</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>3605</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>3616</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>864</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>3619</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>3622</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>3629</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>3639</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>3641</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>3643</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>3645</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>3649</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>3650</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>3652</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="41" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>3653</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="41" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="41" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>3657</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="41" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>3658</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="41" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>3659</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="41" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D75" s="37"/>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="41" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="41" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="41" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="41" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="41" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>3667</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="41" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="41" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="38" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="38" t="s">
+        <v>3671</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C85" s="38" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="38" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C87" s="38" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="38" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C89" s="38" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="38" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="38" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="38" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="38" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="38" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="38" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="38" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="38" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="38" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C99" s="38" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C100" s="38" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="38" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="38" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="38" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="38" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="38" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="38" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="38" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="38" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="38" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="38" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="38" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C112" s="38" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C113" s="38" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="38" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="38" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="38" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="38" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="38" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C119" s="38" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="38" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="38" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C122" s="38" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="38" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="38" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C125" s="38" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="39" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D126" s="40"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="38" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="38" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C129" s="38" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="38" t="s">
+        <v>3716</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="38" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="38" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="38" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C134" s="38" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C135" s="38" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="38" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C137" s="38" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C138" s="38" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="38" t="s">
+        <v>3724</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C140" s="38" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C141" s="38" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C142" s="38" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C143" s="38" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C144" s="38" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="38" t="s">
+        <v>3730</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>3848</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C126:D126"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.w3schools.com/sql/sql_ref_add.asp" xr:uid="{3C128B3C-53F7-4DF5-B9D9-AC1B2C4D4580}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://www.w3schools.com/sql/sql_ref_add_constraint.asp" xr:uid="{E7A6C741-CA70-4E4C-9CC2-9672D050661F}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.w3schools.com/sql/sql_ref_all.asp" xr:uid="{A544365B-02B9-4EF6-ABE7-C2B09EF8781E}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://www.w3schools.com/sql/sql_ref_alter.asp" xr:uid="{F2547D43-43A5-4FF0-B4B8-FA85F59B009A}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.w3schools.com/sql/sql_ref_alter_column.asp" xr:uid="{E636D7C2-50F1-4E29-9796-A5FB1E23998A}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://www.w3schools.com/sql/sql_ref_alter_table.asp" xr:uid="{B3D6CC16-FCC4-4986-834D-0A59057DA2CA}"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.w3schools.com/sql/sql_ref_and.asp" xr:uid="{341C5800-8280-4F56-9D20-0FDCDDAC4BBD}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://www.w3schools.com/sql/sql_ref_any.asp" xr:uid="{51172F47-3D81-4439-B4C9-BFFA4DF98ED2}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.w3schools.com/sql/sql_ref_as.asp" xr:uid="{5657E8A5-3BA9-492A-A174-F1B3EBB6B80B}"/>
+    <hyperlink ref="A13" r:id="rId10" display="https://www.w3schools.com/sql/sql_ref_asc.asp" xr:uid="{C81563BF-95A6-41B7-94E4-6D30979E2CCB}"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://www.w3schools.com/sql/sql_ref_backup_database.asp" xr:uid="{A521654F-1A50-40DE-8017-FD40DC0253B1}"/>
+    <hyperlink ref="A15" r:id="rId12" display="https://www.w3schools.com/sql/sql_ref_between.asp" xr:uid="{EEA82A80-1FB4-4095-A0F2-035ECF9089DB}"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://www.w3schools.com/sql/sql_ref_case.asp" xr:uid="{C90F6537-B97A-449E-A256-E34FE1DC91D5}"/>
+    <hyperlink ref="A17" r:id="rId14" display="https://www.w3schools.com/sql/sql_ref_check.asp" xr:uid="{77AB75F7-D10F-4B76-8F1E-322AF47B80E9}"/>
+    <hyperlink ref="A18" r:id="rId15" display="https://www.w3schools.com/sql/sql_ref_column.asp" xr:uid="{7F39A093-1CAF-40EE-B64A-930B1749520D}"/>
+    <hyperlink ref="A19" r:id="rId16" display="https://www.w3schools.com/sql/sql_ref_constraint.asp" xr:uid="{9616985C-22FC-48D5-B0EE-97F4BA202201}"/>
+    <hyperlink ref="A20" r:id="rId17" display="https://www.w3schools.com/sql/sql_ref_create.asp" xr:uid="{76489614-7AA6-4CA8-BA59-B0FC10378EB1}"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://www.w3schools.com/sql/sql_ref_create_database.asp" xr:uid="{675E84A7-D445-4829-B7A8-EB074FD9262F}"/>
+    <hyperlink ref="A22" r:id="rId19" display="https://www.w3schools.com/sql/sql_ref_create_index.asp" xr:uid="{158D88FC-D718-41CE-8A50-C1F19A4D402E}"/>
+    <hyperlink ref="A23" r:id="rId20" display="https://www.w3schools.com/sql/sql_ref_create_or_replace_view.asp" xr:uid="{1DB778A6-FD46-40B4-9609-7974A77F1A12}"/>
+    <hyperlink ref="A24" r:id="rId21" display="https://www.w3schools.com/sql/sql_ref_create_table.asp" xr:uid="{B8584A45-5E65-47D7-A45C-49ACFD9A2453}"/>
+    <hyperlink ref="A25" r:id="rId22" display="https://www.w3schools.com/sql/sql_ref_create_procedure.asp" xr:uid="{DED7D9B7-6014-4C1A-AB01-20F5D8015BE2}"/>
+    <hyperlink ref="A26" r:id="rId23" display="https://www.w3schools.com/sql/sql_ref_create_unique_index.asp" xr:uid="{30ECD5FE-9BB8-4F49-9450-D154F3D8F32A}"/>
+    <hyperlink ref="A27" r:id="rId24" display="https://www.w3schools.com/sql/sql_ref_create_view.asp" xr:uid="{BBBFC335-0AB6-4E05-A4D3-B4787781A2F0}"/>
+    <hyperlink ref="A28" r:id="rId25" display="https://www.w3schools.com/sql/sql_ref_database.asp" xr:uid="{6DD370CF-1BED-4C3A-AF3C-5BBEE265428A}"/>
+    <hyperlink ref="A29" r:id="rId26" display="https://www.w3schools.com/sql/sql_ref_default.asp" xr:uid="{DB5CCFA1-8EBD-49D2-85CE-82744455200F}"/>
+    <hyperlink ref="A30" r:id="rId27" display="https://www.w3schools.com/sql/sql_ref_delete.asp" xr:uid="{5720F2CF-A67B-46AC-871D-08B3967F4540}"/>
+    <hyperlink ref="A31" r:id="rId28" display="https://www.w3schools.com/sql/sql_ref_desc.asp" xr:uid="{8045FC42-1195-4324-B3DE-AB7A085A0C4F}"/>
+    <hyperlink ref="A32" r:id="rId29" display="https://www.w3schools.com/sql/sql_ref_distinct.asp" xr:uid="{BDE68B9A-2B6E-40A3-B47F-F9AC32CFC159}"/>
+    <hyperlink ref="A33" r:id="rId30" display="https://www.w3schools.com/sql/sql_ref_drop.asp" xr:uid="{1D6A7235-FD1C-4B00-9938-3BE9CDF056AB}"/>
+    <hyperlink ref="A34" r:id="rId31" display="https://www.w3schools.com/sql/sql_ref_drop_column.asp" xr:uid="{E6878ED8-8747-4C53-A6D7-6E64BDFC101B}"/>
+    <hyperlink ref="A35" r:id="rId32" display="https://www.w3schools.com/sql/sql_ref_drop_constraint.asp" xr:uid="{DC923A65-1428-45B8-8719-2D4EB5E5DECC}"/>
+    <hyperlink ref="A36" r:id="rId33" display="https://www.w3schools.com/sql/sql_ref_drop_database.asp" xr:uid="{591449F4-52F4-464B-87AE-30BF0D1E5F78}"/>
+    <hyperlink ref="A37" r:id="rId34" display="https://www.w3schools.com/sql/sql_ref_drop_default.asp" xr:uid="{3FD458A6-778F-4720-AC2B-01B7EECED617}"/>
+    <hyperlink ref="A38" r:id="rId35" display="https://www.w3schools.com/sql/sql_ref_drop_index.asp" xr:uid="{12CA16E3-ED48-43F8-A409-B3570E2D18B6}"/>
+    <hyperlink ref="A39" r:id="rId36" display="https://www.w3schools.com/sql/sql_ref_drop_table.asp" xr:uid="{49BF63CA-6653-439A-9224-48A5290666B6}"/>
+    <hyperlink ref="A40" r:id="rId37" display="https://www.w3schools.com/sql/sql_ref_drop_view.asp" xr:uid="{1F4FA9B4-CC98-4520-BAAA-4D5F98B1E64E}"/>
+    <hyperlink ref="A41" r:id="rId38" display="https://www.w3schools.com/sql/sql_ref_exec.asp" xr:uid="{F6DC8419-C967-4ED8-B090-C49BC466D6AF}"/>
+    <hyperlink ref="A42" r:id="rId39" display="https://www.w3schools.com/sql/sql_ref_exists.asp" xr:uid="{D1CE79F4-FB45-4D62-B2A3-FF1593F6C64B}"/>
+    <hyperlink ref="A43" r:id="rId40" display="https://www.w3schools.com/sql/sql_ref_foreign_key.asp" xr:uid="{0A6487AB-2C1B-452D-9DEA-3831352B9E4A}"/>
+    <hyperlink ref="A44" r:id="rId41" display="https://www.w3schools.com/sql/sql_ref_from.asp" xr:uid="{679A3421-B485-48F2-A40F-EA4BCC56C279}"/>
+    <hyperlink ref="A45" r:id="rId42" display="https://www.w3schools.com/sql/sql_ref_full_outer_join.asp" xr:uid="{D9DF5DC2-B07B-47BF-8F92-7512405FC023}"/>
+    <hyperlink ref="A46" r:id="rId43" display="https://www.w3schools.com/sql/sql_ref_group_by.asp" xr:uid="{45463A65-1B2E-433C-8128-02EE67299BD6}"/>
+    <hyperlink ref="A47" r:id="rId44" display="https://www.w3schools.com/sql/sql_ref_having.asp" xr:uid="{BAD48C2B-7B02-4086-B144-EEE2605A05D0}"/>
+    <hyperlink ref="A48" r:id="rId45" display="https://www.w3schools.com/sql/sql_ref_in.asp" xr:uid="{3B357B81-5452-4909-86D4-6FB6A2825D09}"/>
+    <hyperlink ref="A49" r:id="rId46" display="https://www.w3schools.com/sql/sql_ref_index.asp" xr:uid="{6E9B971B-EF83-4982-8591-7C9F015A87EE}"/>
+    <hyperlink ref="A50" r:id="rId47" display="https://www.w3schools.com/sql/sql_ref_inner_join.asp" xr:uid="{3722469C-59F1-4C47-8B3D-B86FD03B3C85}"/>
+    <hyperlink ref="A51" r:id="rId48" display="https://www.w3schools.com/sql/sql_ref_insert_into.asp" xr:uid="{89C3522B-D391-4F52-B9D7-D08B10569F77}"/>
+    <hyperlink ref="A52" r:id="rId49" display="https://www.w3schools.com/sql/sql_ref_insert_into_select.asp" xr:uid="{DA8B2EA3-8346-4532-BA38-9D0BBBCE513B}"/>
+    <hyperlink ref="A53" r:id="rId50" display="https://www.w3schools.com/sql/sql_ref_is_null.asp" xr:uid="{0C4BE407-F9CB-44FA-8616-0F177900DEC9}"/>
+    <hyperlink ref="A54" r:id="rId51" display="https://www.w3schools.com/sql/sql_ref_is_not_null.asp" xr:uid="{E8880199-42AA-4ECF-BFA9-DAB9D89B36A9}"/>
+    <hyperlink ref="A55" r:id="rId52" display="https://www.w3schools.com/sql/sql_ref_join.asp" xr:uid="{2F696D1D-093A-4AD9-AE83-FDE5C7677E7D}"/>
+    <hyperlink ref="A56" r:id="rId53" display="https://www.w3schools.com/sql/sql_ref_left_join.asp" xr:uid="{14262702-FFBD-4866-A8C3-FEEA1B668687}"/>
+    <hyperlink ref="A57" r:id="rId54" display="https://www.w3schools.com/sql/sql_ref_like.asp" xr:uid="{B9DFED5F-65ED-48E9-9C94-E78920B4D20F}"/>
+    <hyperlink ref="A58" r:id="rId55" display="https://www.w3schools.com/sql/sql_ref_limit.asp" xr:uid="{FF9814BD-0F2D-4AC6-A34F-A48297BD1FF9}"/>
+    <hyperlink ref="A59" r:id="rId56" display="https://www.w3schools.com/sql/sql_ref_not.asp" xr:uid="{4D50560C-1E4A-433A-A276-D830E23F25AC}"/>
+    <hyperlink ref="A60" r:id="rId57" display="https://www.w3schools.com/sql/sql_ref_not_null.asp" xr:uid="{03F44B6A-7AF7-45E5-8FE7-BE829487F6DB}"/>
+    <hyperlink ref="A61" r:id="rId58" display="https://www.w3schools.com/sql/sql_ref_or.asp" xr:uid="{FC442764-728A-40C3-BC73-B9E4ABEC03A0}"/>
+    <hyperlink ref="A62" r:id="rId59" display="https://www.w3schools.com/sql/sql_ref_order_by.asp" xr:uid="{33C8577F-8840-4BA8-8FC6-0CF7294E3A81}"/>
+    <hyperlink ref="A63" r:id="rId60" display="https://www.w3schools.com/sql/sql_ref_outer_join.asp" xr:uid="{AFCAEF3E-51C2-4554-B781-6A8E15D6DDF2}"/>
+    <hyperlink ref="A64" r:id="rId61" display="https://www.w3schools.com/sql/sql_ref_primary_key.asp" xr:uid="{434F1A8E-CE79-4929-962E-8846D54281C5}"/>
+    <hyperlink ref="A65" r:id="rId62" display="https://www.w3schools.com/sql/sql_ref_procedure.asp" xr:uid="{BF36E208-1884-4099-94CD-DB4D12258CE8}"/>
+    <hyperlink ref="A66" r:id="rId63" display="https://www.w3schools.com/sql/sql_ref_right_join.asp" xr:uid="{5D4533D5-91EF-45D0-887E-57397453507E}"/>
+    <hyperlink ref="A67" r:id="rId64" display="https://www.w3schools.com/sql/sql_ref_rownum.asp" xr:uid="{6D21CEB9-2845-499A-B9EA-1B636C8CFE82}"/>
+    <hyperlink ref="A68" r:id="rId65" display="https://www.w3schools.com/sql/sql_ref_select.asp" xr:uid="{46CE5C1F-6EB8-4B4A-82C7-6ED79F0EAE8A}"/>
+    <hyperlink ref="A69" r:id="rId66" display="https://www.w3schools.com/sql/sql_ref_select_distinct.asp" xr:uid="{C78C9191-225E-40B5-B17A-1A228C9E8FBF}"/>
+    <hyperlink ref="A70" r:id="rId67" display="https://www.w3schools.com/sql/sql_ref_select_into.asp" xr:uid="{6989A424-C2BA-48EA-BBD3-5BCE8FDA291B}"/>
+    <hyperlink ref="A71" r:id="rId68" display="https://www.w3schools.com/sql/sql_ref_select_top.asp" xr:uid="{8939958D-243C-44EF-8598-B43ACE18AC23}"/>
+    <hyperlink ref="A72" r:id="rId69" display="https://www.w3schools.com/sql/sql_ref_set.asp" xr:uid="{188E1142-B1E7-4A63-A3ED-C15290F2AEB3}"/>
+    <hyperlink ref="A73" r:id="rId70" display="https://www.w3schools.com/sql/sql_ref_table.asp" xr:uid="{8AF330CB-3A75-42D7-AE57-4E31775D4968}"/>
+    <hyperlink ref="A74" r:id="rId71" display="https://www.w3schools.com/sql/sql_ref_top.asp" xr:uid="{671B1683-4D9D-4B03-8D44-C312E85365F1}"/>
+    <hyperlink ref="A75" r:id="rId72" display="https://www.w3schools.com/sql/sql_ref_truncate_table.asp" xr:uid="{013EFE08-7996-40AB-9949-CA8119AE15AD}"/>
+    <hyperlink ref="A76" r:id="rId73" display="https://www.w3schools.com/sql/sql_ref_union.asp" xr:uid="{4CC71992-7104-413E-B5B7-45D4F604022F}"/>
+    <hyperlink ref="A77" r:id="rId74" display="https://www.w3schools.com/sql/sql_ref_union_all.asp" xr:uid="{54D912A3-A10F-4394-A71D-6D6381C4723F}"/>
+    <hyperlink ref="A78" r:id="rId75" display="https://www.w3schools.com/sql/sql_ref_unique.asp" xr:uid="{3FCE5ECA-BD76-433E-BD84-20492F819DDE}"/>
+    <hyperlink ref="A79" r:id="rId76" display="https://www.w3schools.com/sql/sql_ref_update.asp" xr:uid="{AEA4AD25-6497-4914-9B45-9BCB44DCF493}"/>
+    <hyperlink ref="A80" r:id="rId77" display="https://www.w3schools.com/sql/sql_ref_values.asp" xr:uid="{9DEE2486-C407-42DC-9A46-EA7931D3A194}"/>
+    <hyperlink ref="A81" r:id="rId78" display="https://www.w3schools.com/sql/sql_ref_view.asp" xr:uid="{D29B650B-3485-4307-B314-6698BAFD2AF5}"/>
+    <hyperlink ref="A82" r:id="rId79" display="https://www.w3schools.com/sql/sql_ref_where.asp" xr:uid="{E3413E12-E3D4-42BA-A4D9-5F327645A674}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 

--- a/Portafolio.xlsx
+++ b/Portafolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portafolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A849072-C320-45C0-9388-BDBD98D315A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A15E6BA-70CA-458D-9310-E5F6842A48C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{531A44E2-BAA0-44A1-A07C-F752D8ABEFEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{531A44E2-BAA0-44A1-A07C-F752D8ABEFEE}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="JS" sheetId="4" r:id="rId3"/>
     <sheet name="SQL" sheetId="5" r:id="rId4"/>
     <sheet name="SASS" sheetId="3" r:id="rId5"/>
+    <sheet name="GIT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4714" uniqueCount="3850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="3940">
   <si>
     <t>HTML</t>
   </si>
@@ -11590,6 +11591,276 @@
   </si>
   <si>
     <t>Lenguaje de consulta estructurado</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Comandos principales de porcelana</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Agregar contenido del archivo al índice</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>bisect</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>cherry-pick</t>
+  </si>
+  <si>
+    <t>citool</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>format-patch</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>gitk</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push</t>
+  </si>
+  <si>
+    <t>range-diff</t>
+  </si>
+  <si>
+    <t>rebase</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>revert</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>scalar</t>
+  </si>
+  <si>
+    <t>shortlog</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>sparse-checkout</t>
+  </si>
+  <si>
+    <t>stash</t>
+  </si>
+  <si>
+    <t>submodule</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>worktree</t>
+  </si>
+  <si>
+    <t>Aplicar una serie de parches desde un buzón</t>
+  </si>
+  <si>
+    <t>Crea un archivo de archivos de un árbol con nombre</t>
+  </si>
+  <si>
+    <t>Utilice la búsqueda binaria para encontrar la confirmación que introdujo un error</t>
+  </si>
+  <si>
+    <t>Listar, crear o eliminar ramas</t>
+  </si>
+  <si>
+    <t>Mover objetos y referencias por archivo</t>
+  </si>
+  <si>
+    <t>Cambiar ramas o restaurar archivos de árbol de trabajo</t>
+  </si>
+  <si>
+    <t>Aplicar los cambios introducidos por algunas confirmaciones existentes</t>
+  </si>
+  <si>
+    <t>Alternativa gráfica a git-commit</t>
+  </si>
+  <si>
+    <t>Eliminar archivos sin seguimiento del árbol de trabajo</t>
+  </si>
+  <si>
+    <t>Clonar un repositorio en un nuevo directorio</t>
+  </si>
+  <si>
+    <t>Confirma cambios de registro en el repositorio</t>
+  </si>
+  <si>
+    <t>Dar a un objeto un nombre legible por humanos basado en una referencia disponible</t>
+  </si>
+  <si>
+    <t>Muestra cambios entre confirmaciones, confirmación y árbol de trabajo, etc.</t>
+  </si>
+  <si>
+    <t>Descargar objetos y referencias de otro repositorio</t>
+  </si>
+  <si>
+    <t>Preparar parches para enviarlos por correo electrónico</t>
+  </si>
+  <si>
+    <t>Limpiar archivos innecesarios y optimizar el repositorio local</t>
+  </si>
+  <si>
+    <t>El navegador de repositorios Git</t>
+  </si>
+  <si>
+    <t>Imprimir líneas que coincidan con un patrón</t>
+  </si>
+  <si>
+    <t>Una interfaz gráfica portátil para Git</t>
+  </si>
+  <si>
+    <t>Crea un repositorio Git vacío o reinicializa uno existente</t>
+  </si>
+  <si>
+    <t>Mostrar registros de confirmación</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas para optimizar los datos del repositorio Git</t>
+  </si>
+  <si>
+    <t>Unir dos o más historias de desarrollo juntas</t>
+  </si>
+  <si>
+    <t>Mover o cambiar el nombre de un archivo, un directorio o un enlace simbólico</t>
+  </si>
+  <si>
+    <t>Agregar o inspeccionar notas de objetos</t>
+  </si>
+  <si>
+    <t>Extraer fetch e intégrelo con otro repositorio o una sucursal local</t>
+  </si>
+  <si>
+    <t>Actualizar referencias remotas junto con los objetos asociados</t>
+  </si>
+  <si>
+    <t>Compara dos rangos de confirmación (por ejemplo, dos versiones de una rama)</t>
+  </si>
+  <si>
+    <t>confirma sobre otra sugerencia base</t>
+  </si>
+  <si>
+    <t>Restablece el HEAD actual al estado especificado</t>
+  </si>
+  <si>
+    <t>Restaurar archivos del árbol de trabajo</t>
+  </si>
+  <si>
+    <t>Revertir algunas confirmaciones existentes</t>
+  </si>
+  <si>
+    <t>Eliminar archivos del árbol de trabajo y del índice</t>
+  </si>
+  <si>
+    <t>Una herramienta para gestionar grandes repositorios Git</t>
+  </si>
+  <si>
+    <t>Resumir la salida de 'git log'</t>
+  </si>
+  <si>
+    <t>Muestra varios tipos de objetos.</t>
+  </si>
+  <si>
+    <t>Reduzca su árbol de trabajo a un subconjunto de archivos rastreados</t>
+  </si>
+  <si>
+    <t>Guarda los cambios en un directorio de trabajo sucio.</t>
+  </si>
+  <si>
+    <t>Mostrar el estado del árbol de trabajo</t>
+  </si>
+  <si>
+    <t>Inicializar, actualizar o inspeccionar submódulos</t>
+  </si>
+  <si>
+    <t>Cambiar ramas</t>
+  </si>
+  <si>
+    <t>Crear, enumerar, eliminar o verificar un objeto de etiqueta firmado con GPG</t>
+  </si>
+  <si>
+    <t>Administrar múltiples árboles de trabajo</t>
+  </si>
+  <si>
+    <t>Comando</t>
+  </si>
+  <si>
+    <t>Sistema de control de versiones</t>
   </si>
 </sst>
 </file>
@@ -11649,7 +11920,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11689,6 +11960,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11831,7 +12108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11908,6 +12185,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11932,6 +12218,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11941,22 +12236,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12302,36 +12585,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -12361,11 +12644,11 @@
       <c r="I3" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="29" t="s">
         <v>859</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -12395,10 +12678,10 @@
       <c r="I4" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="29" t="s">
         <v>860</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="33" t="s">
         <v>869</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -12433,8 +12716,8 @@
       <c r="I5" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="30"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="3" t="s">
         <v>875</v>
       </c>
@@ -12467,8 +12750,8 @@
       <c r="I6" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="30"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="3" t="s">
         <v>874</v>
       </c>
@@ -12501,8 +12784,8 @@
       <c r="I7" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="30"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="3" t="s">
         <v>873</v>
       </c>
@@ -12535,8 +12818,8 @@
       <c r="I8" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="3" t="s">
         <v>872</v>
       </c>
@@ -12569,8 +12852,8 @@
       <c r="I9" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="30"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="3" t="s">
         <v>871</v>
       </c>
@@ -12603,10 +12886,10 @@
       <c r="I10" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="29" t="s">
         <v>861</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="33" t="s">
         <v>870</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -12641,8 +12924,8 @@
       <c r="I11" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="30"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="3" t="s">
         <v>878</v>
       </c>
@@ -12675,8 +12958,8 @@
       <c r="I12" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="3" t="s">
         <v>879</v>
       </c>
@@ -12709,8 +12992,8 @@
       <c r="I13" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="30"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="3" t="s">
         <v>880</v>
       </c>
@@ -18468,30 +18751,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>888</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -22517,18 +22800,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>2020</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>3437</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -30379,7 +30662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CF9ACB-2185-4194-A60C-AFEA20557261}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -30401,32 +30684,32 @@
       <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>3849</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="26" t="s">
         <v>3439</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="26" t="s">
         <v>893</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="27" t="s">
         <v>3514</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="28" t="s">
         <v>3440</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -30435,13 +30718,13 @@
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="27" t="s">
         <v>3515</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>3441</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="26" t="s">
         <v>3592</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -30449,13 +30732,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="27" t="s">
         <v>3516</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="28" t="s">
         <v>3442</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="26" t="s">
         <v>3593</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -30463,13 +30746,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="27" t="s">
         <v>3517</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="28" t="s">
         <v>3443</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="26" t="s">
         <v>3594</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -30477,13 +30760,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="27" t="s">
         <v>3518</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="28" t="s">
         <v>3444</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="26" t="s">
         <v>3595</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -30491,13 +30774,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="27" t="s">
         <v>3519</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="28" t="s">
         <v>3445</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="26" t="s">
         <v>3596</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -30505,13 +30788,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="27" t="s">
         <v>3520</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="28" t="s">
         <v>3446</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="26" t="s">
         <v>3597</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -30519,13 +30802,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="27" t="s">
         <v>3521</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="28" t="s">
         <v>3447</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="26" t="s">
         <v>3598</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -30533,13 +30816,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="27" t="s">
         <v>3522</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="28" t="s">
         <v>3448</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="26" t="s">
         <v>3599</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -30547,13 +30830,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="27" t="s">
         <v>3523</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="28" t="s">
         <v>3449</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="26" t="s">
         <v>3600</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -30561,13 +30844,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="27" t="s">
         <v>3524</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="28" t="s">
         <v>3450</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="26" t="s">
         <v>3601</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -30575,13 +30858,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="27" t="s">
         <v>3525</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="28" t="s">
         <v>3451</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="26" t="s">
         <v>3602</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -30589,13 +30872,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="27" t="s">
         <v>3526</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="28" t="s">
         <v>3452</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="26" t="s">
         <v>3603</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -30603,13 +30886,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="27" t="s">
         <v>3527</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="28" t="s">
         <v>3453</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="26" t="s">
         <v>3604</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -30617,13 +30900,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="27" t="s">
         <v>3528</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="28" t="s">
         <v>3454</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="26" t="s">
         <v>3605</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -30631,13 +30914,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="27" t="s">
         <v>3529</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="28" t="s">
         <v>3455</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="26" t="s">
         <v>3606</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -30645,13 +30928,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="27" t="s">
         <v>3530</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="28" t="s">
         <v>3456</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="26" t="s">
         <v>3607</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -30659,13 +30942,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="27" t="s">
         <v>3531</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="28" t="s">
         <v>3457</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="26" t="s">
         <v>3608</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -30673,13 +30956,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="27" t="s">
         <v>3532</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="28" t="s">
         <v>3458</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="26" t="s">
         <v>3609</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -30687,13 +30970,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="27" t="s">
         <v>3533</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="28" t="s">
         <v>3459</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="26" t="s">
         <v>3610</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -30701,13 +30984,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="27" t="s">
         <v>3534</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="28" t="s">
         <v>3460</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="26" t="s">
         <v>3611</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -30715,13 +30998,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="27" t="s">
         <v>3535</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="28" t="s">
         <v>3461</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="26" t="s">
         <v>3612</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -30729,13 +31012,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="27" t="s">
         <v>3536</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="28" t="s">
         <v>3462</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="26" t="s">
         <v>3613</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -30743,13 +31026,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="27" t="s">
         <v>3537</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="28" t="s">
         <v>3463</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="26" t="s">
         <v>3614</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -30757,13 +31040,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="27" t="s">
         <v>3538</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="28" t="s">
         <v>3464</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="26" t="s">
         <v>3615</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -30771,13 +31054,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="27" t="s">
         <v>3539</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="28" t="s">
         <v>3465</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="26" t="s">
         <v>3616</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -30785,13 +31068,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="27" t="s">
         <v>864</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="28" t="s">
         <v>3466</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="26" t="s">
         <v>3617</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -30799,13 +31082,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="27" t="s">
         <v>3540</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="28" t="s">
         <v>3467</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="26" t="s">
         <v>3618</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -30813,13 +31096,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="27" t="s">
         <v>3541</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="28" t="s">
         <v>3468</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="26" t="s">
         <v>3619</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -30827,13 +31110,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="27" t="s">
         <v>3542</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="28" t="s">
         <v>3469</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="26" t="s">
         <v>3620</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -30841,13 +31124,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="27" t="s">
         <v>3543</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="28" t="s">
         <v>3470</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="26" t="s">
         <v>3621</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -30855,13 +31138,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="27" t="s">
         <v>3544</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="28" t="s">
         <v>3471</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="26" t="s">
         <v>3622</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -30869,13 +31152,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="27" t="s">
         <v>3545</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="28" t="s">
         <v>3472</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="26" t="s">
         <v>3623</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -30883,13 +31166,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="27" t="s">
         <v>3546</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="28" t="s">
         <v>3473</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="26" t="s">
         <v>3624</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -30897,10 +31180,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="27" t="s">
         <v>3547</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="28" t="s">
         <v>3474</v>
       </c>
       <c r="C38" s="37" t="s">
@@ -30909,13 +31192,13 @@
       <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="27" t="s">
         <v>3548</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="28" t="s">
         <v>3475</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="26" t="s">
         <v>3625</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -30923,13 +31206,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="27" t="s">
         <v>3549</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="28" t="s">
         <v>3476</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="26" t="s">
         <v>3626</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -30937,13 +31220,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="27" t="s">
         <v>3550</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="28" t="s">
         <v>3477</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="26" t="s">
         <v>3627</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -30951,13 +31234,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="27" t="s">
         <v>3551</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="28" t="s">
         <v>3478</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="26" t="s">
         <v>3628</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -30965,13 +31248,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="27" t="s">
         <v>3552</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="28" t="s">
         <v>3479</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="26" t="s">
         <v>3629</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -30979,13 +31262,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="27" t="s">
         <v>3553</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="28" t="s">
         <v>3480</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="26" t="s">
         <v>3630</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -30993,13 +31276,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="27" t="s">
         <v>3554</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="28" t="s">
         <v>3481</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="26" t="s">
         <v>3631</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -31007,13 +31290,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="27" t="s">
         <v>3555</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="28" t="s">
         <v>3482</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="26" t="s">
         <v>3632</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -31021,13 +31304,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="27" t="s">
         <v>3556</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="28" t="s">
         <v>3483</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="26" t="s">
         <v>3633</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -31035,13 +31318,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="27" t="s">
         <v>3557</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="28" t="s">
         <v>3484</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="26" t="s">
         <v>3634</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -31049,13 +31332,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="27" t="s">
         <v>3558</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="28" t="s">
         <v>3485</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="26" t="s">
         <v>3635</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -31063,13 +31346,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="27" t="s">
         <v>3559</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="28" t="s">
         <v>3486</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="26" t="s">
         <v>3636</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -31077,13 +31360,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="27" t="s">
         <v>3560</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="28" t="s">
         <v>3487</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="26" t="s">
         <v>3637</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -31091,13 +31374,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="27" t="s">
         <v>3561</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="28" t="s">
         <v>3488</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="26" t="s">
         <v>3638</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -31105,13 +31388,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="27" t="s">
         <v>3562</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="28" t="s">
         <v>3489</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="26" t="s">
         <v>3639</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -31119,13 +31402,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="27" t="s">
         <v>3563</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="28" t="s">
         <v>3490</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="26" t="s">
         <v>3640</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -31133,13 +31416,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="27" t="s">
         <v>3564</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="28" t="s">
         <v>3491</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="26" t="s">
         <v>3641</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -31147,13 +31430,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="27" t="s">
         <v>3565</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="28" t="s">
         <v>3492</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="26" t="s">
         <v>3642</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -31161,13 +31444,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="27" t="s">
         <v>3566</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="28" t="s">
         <v>3493</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="26" t="s">
         <v>3643</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -31175,13 +31458,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="27" t="s">
         <v>3567</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="28" t="s">
         <v>3494</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="26" t="s">
         <v>3644</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -31189,13 +31472,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="27" t="s">
         <v>3568</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="28" t="s">
         <v>3495</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="26" t="s">
         <v>3645</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -31203,13 +31486,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="27" t="s">
         <v>3569</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="28" t="s">
         <v>3496</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="26" t="s">
         <v>3646</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -31217,13 +31500,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="27" t="s">
         <v>3570</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="28" t="s">
         <v>3497</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="26" t="s">
         <v>3647</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -31231,13 +31514,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="27" t="s">
         <v>3571</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="28" t="s">
         <v>3498</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="26" t="s">
         <v>3648</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -31245,13 +31528,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="27" t="s">
         <v>3572</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="28" t="s">
         <v>3481</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="26" t="s">
         <v>2500</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -31259,13 +31542,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="27" t="s">
         <v>3573</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="28" t="s">
         <v>3499</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="26" t="s">
         <v>3649</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -31273,13 +31556,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="27" t="s">
         <v>3574</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="28" t="s">
         <v>3500</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="26" t="s">
         <v>3650</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -31287,13 +31570,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="27" t="s">
         <v>3575</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="28" t="s">
         <v>3501</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="26" t="s">
         <v>3651</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -31301,13 +31584,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="27" t="s">
         <v>3576</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="28" t="s">
         <v>3494</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="26" t="s">
         <v>3652</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -31315,13 +31598,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="27" t="s">
         <v>3577</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="28" t="s">
         <v>3502</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="26" t="s">
         <v>3653</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -31329,13 +31612,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="27" t="s">
         <v>3578</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="28" t="s">
         <v>3468</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="26" t="s">
         <v>3654</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -31343,13 +31626,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="27" t="s">
         <v>3579</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="28" t="s">
         <v>3503</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="26" t="s">
         <v>3655</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -31357,13 +31640,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="27" t="s">
         <v>3580</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="28" t="s">
         <v>3494</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="26" t="s">
         <v>3656</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -31371,13 +31654,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="27" t="s">
         <v>3581</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="28" t="s">
         <v>3504</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="26" t="s">
         <v>3657</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -31385,13 +31668,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="27" t="s">
         <v>3582</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="28" t="s">
         <v>3505</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="26" t="s">
         <v>3658</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -31399,13 +31682,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="27" t="s">
         <v>3583</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="28" t="s">
         <v>3494</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="26" t="s">
         <v>3659</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -31413,10 +31696,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="27" t="s">
         <v>3584</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="28" t="s">
         <v>3506</v>
       </c>
       <c r="C75" s="37" t="s">
@@ -31425,13 +31708,13 @@
       <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="27" t="s">
         <v>3585</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="28" t="s">
         <v>3507</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="26" t="s">
         <v>3663</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -31439,13 +31722,13 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="27" t="s">
         <v>3586</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="28" t="s">
         <v>3508</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="26" t="s">
         <v>3664</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -31453,13 +31736,13 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="27" t="s">
         <v>3587</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="28" t="s">
         <v>3509</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="26" t="s">
         <v>3665</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -31467,13 +31750,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="27" t="s">
         <v>3588</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="28" t="s">
         <v>3510</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="26" t="s">
         <v>3666</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -31481,13 +31764,13 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="27" t="s">
         <v>3589</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="28" t="s">
         <v>3511</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="26" t="s">
         <v>3667</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -31495,13 +31778,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="27" t="s">
         <v>3590</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="28" t="s">
         <v>3512</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="26" t="s">
         <v>3668</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -31509,13 +31792,13 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="27" t="s">
         <v>3591</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="28" t="s">
         <v>3513</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="26" t="s">
         <v>3669</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -31523,7 +31806,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="26" t="s">
         <v>3670</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -31531,7 +31814,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="26" t="s">
         <v>3671</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -31539,7 +31822,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="26" t="s">
         <v>3672</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -31547,7 +31830,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="26" t="s">
         <v>3673</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -31555,7 +31838,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="26" t="s">
         <v>3674</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -31563,7 +31846,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="26" t="s">
         <v>3675</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -31571,7 +31854,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="26" t="s">
         <v>3676</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -31579,7 +31862,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="26" t="s">
         <v>3677</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -31587,7 +31870,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="26" t="s">
         <v>3678</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -31595,7 +31878,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="26" t="s">
         <v>3679</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -31603,7 +31886,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="26" t="s">
         <v>3680</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -31611,7 +31894,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="26" t="s">
         <v>3681</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -31619,7 +31902,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="26" t="s">
         <v>3682</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -31627,7 +31910,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="26" t="s">
         <v>3683</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -31635,7 +31918,7 @@
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="38" t="s">
+      <c r="C97" s="26" t="s">
         <v>3684</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -31643,7 +31926,7 @@
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="26" t="s">
         <v>3685</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -31651,7 +31934,7 @@
       </c>
     </row>
     <row r="99" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="26" t="s">
         <v>3686</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -31659,7 +31942,7 @@
       </c>
     </row>
     <row r="100" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C100" s="38" t="s">
+      <c r="C100" s="26" t="s">
         <v>3687</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -31667,7 +31950,7 @@
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="38" t="s">
+      <c r="C101" s="26" t="s">
         <v>3688</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -31675,7 +31958,7 @@
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="26" t="s">
         <v>3689</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -31683,7 +31966,7 @@
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="38" t="s">
+      <c r="C103" s="26" t="s">
         <v>3690</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -31691,7 +31974,7 @@
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="26" t="s">
         <v>3691</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -31699,7 +31982,7 @@
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="26" t="s">
         <v>3692</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -31707,7 +31990,7 @@
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="26" t="s">
         <v>3693</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -31715,7 +31998,7 @@
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="26" t="s">
         <v>3694</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -31723,7 +32006,7 @@
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="26" t="s">
         <v>3695</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -31731,7 +32014,7 @@
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="26" t="s">
         <v>3696</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -31739,7 +32022,7 @@
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="26" t="s">
         <v>3697</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -31747,7 +32030,7 @@
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="26" t="s">
         <v>3698</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -31755,7 +32038,7 @@
       </c>
     </row>
     <row r="112" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="26" t="s">
         <v>3699</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -31763,7 +32046,7 @@
       </c>
     </row>
     <row r="113" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="26" t="s">
         <v>3700</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -31771,7 +32054,7 @@
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="26" t="s">
         <v>3701</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -31779,7 +32062,7 @@
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="26" t="s">
         <v>3702</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -31787,7 +32070,7 @@
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="26" t="s">
         <v>3703</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -31795,7 +32078,7 @@
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="26" t="s">
         <v>3704</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -31803,7 +32086,7 @@
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="38" t="s">
+      <c r="C118" s="26" t="s">
         <v>3705</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -31811,7 +32094,7 @@
       </c>
     </row>
     <row r="119" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="26" t="s">
         <v>3706</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -31819,7 +32102,7 @@
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="26" t="s">
         <v>3707</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -31827,7 +32110,7 @@
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="26" t="s">
         <v>3708</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -31835,7 +32118,7 @@
       </c>
     </row>
     <row r="122" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="26" t="s">
         <v>3709</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -31843,7 +32126,7 @@
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="26" t="s">
         <v>3710</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -31851,7 +32134,7 @@
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="26" t="s">
         <v>3711</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -31859,7 +32142,7 @@
       </c>
     </row>
     <row r="125" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="26" t="s">
         <v>3712</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -31867,13 +32150,13 @@
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="39" t="s">
+      <c r="C126" s="38" t="s">
         <v>3713</v>
       </c>
-      <c r="D126" s="40"/>
+      <c r="D126" s="39"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="26" t="s">
         <v>3714</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -31881,7 +32164,7 @@
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="26" t="s">
         <v>3715</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -31889,7 +32172,7 @@
       </c>
     </row>
     <row r="129" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="26" t="s">
         <v>3526</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -31897,7 +32180,7 @@
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="26" t="s">
         <v>3716</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -31905,7 +32188,7 @@
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="26" t="s">
         <v>3717</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -31913,7 +32196,7 @@
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="26" t="s">
         <v>3718</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -31921,7 +32204,7 @@
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="38" t="s">
+      <c r="C133" s="26" t="s">
         <v>3719</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -31929,7 +32212,7 @@
       </c>
     </row>
     <row r="134" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C134" s="38" t="s">
+      <c r="C134" s="26" t="s">
         <v>3720</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -31937,7 +32220,7 @@
       </c>
     </row>
     <row r="135" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="26" t="s">
         <v>3721</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -31945,7 +32228,7 @@
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="38" t="s">
+      <c r="C136" s="26" t="s">
         <v>3538</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -31953,7 +32236,7 @@
       </c>
     </row>
     <row r="137" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C137" s="38" t="s">
+      <c r="C137" s="26" t="s">
         <v>3722</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -31961,7 +32244,7 @@
       </c>
     </row>
     <row r="138" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C138" s="38" t="s">
+      <c r="C138" s="26" t="s">
         <v>3723</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -31969,7 +32252,7 @@
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="38" t="s">
+      <c r="C139" s="26" t="s">
         <v>3724</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -31977,7 +32260,7 @@
       </c>
     </row>
     <row r="140" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C140" s="38" t="s">
+      <c r="C140" s="26" t="s">
         <v>3725</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -31985,7 +32268,7 @@
       </c>
     </row>
     <row r="141" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="26" t="s">
         <v>3726</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -31993,7 +32276,7 @@
       </c>
     </row>
     <row r="142" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="26" t="s">
         <v>3727</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -32001,7 +32284,7 @@
       </c>
     </row>
     <row r="143" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C143" s="38" t="s">
+      <c r="C143" s="26" t="s">
         <v>3728</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -32009,7 +32292,7 @@
       </c>
     </row>
     <row r="144" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C144" s="38" t="s">
+      <c r="C144" s="26" t="s">
         <v>3729</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -32017,7 +32300,7 @@
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="38" t="s">
+      <c r="C145" s="26" t="s">
         <v>3730</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -32026,12 +32309,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C126:D126"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://www.w3schools.com/sql/sql_ref_add.asp" xr:uid="{3C128B3C-53F7-4DF5-B9D9-AC1B2C4D4580}"/>
@@ -32135,20 +32418,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>1841</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>1842</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -32881,4 +33164,407 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA13E0D-300D-430E-B655-692F390C395F}">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B1" s="43"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B2" s="33"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B3" s="43"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>